--- a/Basic Key of Excel 2907.xlsx
+++ b/Basic Key of Excel 2907.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data Analyst\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9852A607-090C-4F42-B3D1-8B101639DAC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E29ECC0-90BD-472A-AD58-139A42F18460}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" xr2:uid="{65B41632-0791-4A9B-A728-73A402382A17}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="1" xr2:uid="{65B41632-0791-4A9B-A728-73A402382A17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Product</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
     <t>Jane Smith</t>
   </si>
   <si>
@@ -104,6 +101,24 @@
   </si>
   <si>
     <t>Eva White</t>
+  </si>
+  <si>
+    <t>jane Smith</t>
+  </si>
+  <si>
+    <t>john@example.com</t>
+  </si>
+  <si>
+    <t>jane@example.com</t>
+  </si>
+  <si>
+    <t>alice@example.com</t>
+  </si>
+  <si>
+    <t>bob@example.com</t>
+  </si>
+  <si>
+    <t>eva@example.com</t>
   </si>
 </sst>
 </file>
@@ -111,9 +126,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +140,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,16 +170,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE166D0-9939-4E47-B4FE-79B7FFFB1E48}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -830,15 +856,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8A5FD7-C907-4D31-9C7F-D6E12AB76171}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -851,30 +878,71 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3FF1F93E-DABB-4C9B-A133-90E43B6A2A29}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{AFFBD491-04A2-4382-9575-495EFE834684}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{2EEE0857-48A6-4818-815C-7B6D12855F21}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{229F8ADC-A18F-4DA7-A486-389EF8556E55}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{DE160D20-D37C-48AC-B6FC-8719A463BC08}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{3E51B048-790A-47F8-94F0-E7BFBF90CCF3}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{BF26902B-CC98-47F5-8463-B6F2163F4A9B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>